--- a/data/trans_bre/P30_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>-7,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-9,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-23,7%</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,42%</t>
+          <t>-34,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-26,44%</t>
+          <t>-30,78%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-38,81%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-38,24%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 1,0</t>
+          <t>-16,53; 0,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 2,27</t>
+          <t>-16,04; 1,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 0,86</t>
+          <t>-18,56; -0,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 6,11</t>
+          <t>-20,06; 1,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 11,1</t>
+          <t>-61,01; 7,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 6,02</t>
+          <t>-53,1; 8,4</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-61,4; -1,92</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-60,08; 5,75</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-8,61</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-30,41%</t>
+          <t>40,1%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-31,09%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32,36%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,93; 7,11</t>
+          <t>-6,49; 12,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,75; 8,13</t>
+          <t>-1,92; 17,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 1,69</t>
+          <t>-17,05; 3,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,55; 41,92</t>
+          <t>-4,58; 20,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 36,61</t>
+          <t>-27,91; 94,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,97; 11,43</t>
+          <t>-9,73; 131,36</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-63,7; 22,29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-23,06; 151,44</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,85%</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>32,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>68,97%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24,77%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 13,35</t>
+          <t>-16,55; 26,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 13,5</t>
+          <t>-16,16; 24,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 16,81</t>
+          <t>-9,73; 29,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-62,04; 150,99</t>
+          <t>-18,9; 29,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,07; 128,58</t>
+          <t>-60,63; 540,93</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,38; 257,68</t>
+          <t>-69,8; 690,06</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-56,31; 874,31</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-54,4; 347,71</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,87</t>
+          <t>-6,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-10,67%</t>
+          <t>-8,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,65%</t>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-29,22%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-9,33%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 1,99</t>
+          <t>-8,45; 4,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 2,55</t>
+          <t>-6,47; 5,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 0,26</t>
+          <t>-12,97; -0,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 11,82</t>
+          <t>-9,48; 5,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 11,63</t>
+          <t>-34,71; 25,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,27; 2,12</t>
+          <t>-26,6; 34,08</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-50,5; -2,45</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-35,6; 29,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P30_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P30_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-7,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-7,65</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-9,59</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-10,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-34,99%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-30,78%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-38,81%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-38,24%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-7.289753051047024</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-7.118652430718861</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-10.39033763115063</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-9.848595514669961</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.3381266517065935</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.2980625617693635</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.4031966045205191</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.3706310952612818</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-16,53; 0,97</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,04; 1,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,56; -0,5</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-20,06; 1,02</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-61,01; 7,19</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-53,1; 8,4</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-61,4; -1,92</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-60,08; 5,75</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.7143567112883</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.34401715416574</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.46845516259163</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-19.48944116776833</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.6025682690554512</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5305504728540517</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6224605109493494</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5890267138574374</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.281906627973186</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.761287987854315</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-1.117118071341123</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.192800255732624</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.09220416993274085</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.0854007524356946</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>-0.04695982356469482</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.08949073597239592</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>3,87</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,58</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,68</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>20,86%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>40,1%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-31,09%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,49; 12,92</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 17,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,05; 3,89</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 20,91</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-27,91; 94,2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 131,36</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-63,7; 22,29</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-23,06; 151,44</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.042065348288103</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>7.440945399750806</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.799836900039679</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>4.072838957743693</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1571310854700872</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.3993654243892033</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.3171433182559141</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.2055915546259436</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>4,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8,81</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>20,55%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>32,51%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>68,97%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>24,77%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.951944539673267</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.080971951064567</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-18.46920962407492</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.67074964965115</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.3127144598579326</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.1273079622279683</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.6575792973911728</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.3006798233013594</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,55; 26,83</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-16,16; 24,29</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 29,45</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-18,9; 29,37</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-60,63; 540,93</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-69,8; 690,06</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-56,31; 874,31</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-54,4; 347,71</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.39982317107888</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>17.25295657258458</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.712284414851935</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.41597807902561</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.9423523823415605</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.308683039258442</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.249858935579656</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.202051467160863</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,197 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-8,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,8%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-29,22%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-9,33%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>4.543911919446527</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.905258446876244</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>8.59467196775087</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.029438819175287</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.2572898060837427</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.189716456293682</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6761433476246466</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1826609468889455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 4,17</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,47; 5,97</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-12,97; -0,35</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-9,48; 5,52</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-34,71; 25,85</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-26,6; 34,08</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-50,5; -2,45</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-35,6; 29,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.59108317508893</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.73781173293615</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.89641835406319</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-20.47412575923383</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6331719664857212</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.7447003055555679</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.6009327833939889</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.5588082998414473</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>28.67913766605157</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.50890678982375</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>29.7945941169586</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>28.04638974708458</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>4.556976337434596</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>5.960204778427078</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>8.358601268027954</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.302486858157502</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-1.92157115037252</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.09918759538806166</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-6.842294037994814</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-2.831916999823819</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.09494157726932301</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.004782193613232008</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.3036422544214005</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1213017983967976</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.563110053499633</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.385339607279968</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-13.54034117345362</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-10.12611392579332</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3450994560769943</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.2629951437451317</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5128467832859581</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.37839699412509</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.219303378297719</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.022421445321979</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.6166930536847355</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.391649015331067</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.2517074989430331</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3407186773323516</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.03115849453178171</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2153796449330485</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1025,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
